--- a/database/archivo_carga_cupos_con_datos.xlsx
+++ b/database/archivo_carga_cupos_con_datos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="19">
   <si>
     <t>paralelo_principal</t>
   </si>
@@ -36,12 +36,6 @@
     <t>tipo_matricula</t>
   </si>
   <si>
-    <t>periodo_academico_id</t>
-  </si>
-  <si>
-    <t>malla_id</t>
-  </si>
-  <si>
     <t>jornada_asignatura</t>
   </si>
   <si>
@@ -76,6 +70,12 @@
   </si>
   <si>
     <t>1DS1FT0402</t>
+  </si>
+  <si>
+    <t>VESPERTINA</t>
+  </si>
+  <si>
+    <t>periodo_academico_principal</t>
   </si>
 </sst>
 </file>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,24 +412,23 @@
     <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -441,21 +440,18 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1751817626</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -464,30 +460,27 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1722001458</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -496,30 +489,27 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1752786929</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -528,30 +518,27 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I4">
         <v>3</v>
       </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1726631896</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -560,30 +547,27 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1752561033</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -592,30 +576,27 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1725474025</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -624,30 +605,27 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1751286509</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -656,30 +634,27 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1727544114</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -688,30 +663,27 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1726795410</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -720,30 +692,27 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I10">
         <v>4</v>
       </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1726513995</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -752,30 +721,27 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I11">
         <v>5</v>
       </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1722727037</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -784,30 +750,27 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1724786940</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -816,30 +779,27 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1727156935</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -848,30 +808,27 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I14">
         <v>3</v>
       </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1724970486</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -880,30 +837,27 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I15">
         <v>4</v>
       </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1727135418</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -912,30 +866,27 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I16">
         <v>5</v>
       </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1752800142</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -944,30 +895,27 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1752536456</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -976,30 +924,27 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>605464668</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -1008,30 +953,27 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I19">
         <v>3</v>
       </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1751346071</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -1040,30 +982,27 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I20">
         <v>4</v>
       </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1725891244</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -1072,30 +1011,27 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I21">
         <v>5</v>
       </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1314660893</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -1104,30 +1040,27 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1750402511</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -1136,30 +1069,27 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1725115784</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -1168,30 +1098,27 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I24">
         <v>3</v>
       </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1758998874</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -1200,30 +1127,27 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I25">
         <v>4</v>
       </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1722619010</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -1232,30 +1156,27 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I26">
         <v>5</v>
       </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1716992563</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -1264,30 +1185,27 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1758313017</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -1296,30 +1214,27 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1750069625</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -1328,30 +1243,27 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I29">
         <v>3</v>
       </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1727361295</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -1360,30 +1272,27 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I30">
         <v>4</v>
       </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1751649029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -1392,30 +1301,27 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I31">
         <v>5</v>
       </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1723666457</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -1424,30 +1330,27 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>1725619314</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -1456,30 +1359,27 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s">
         <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I33">
         <v>2</v>
       </c>
-      <c r="J33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>1750402917</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -1488,30 +1388,27 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s">
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I34">
         <v>3</v>
       </c>
-      <c r="J34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>1754233151</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -1520,30 +1417,27 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
         <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I35">
         <v>4</v>
       </c>
-      <c r="J35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>1752412773</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -1552,30 +1446,27 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I36">
         <v>5</v>
       </c>
-      <c r="J36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>1752430098</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -1584,30 +1475,27 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>1719247445</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -1616,30 +1504,27 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
-      <c r="J38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1752682490</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -1648,30 +1533,27 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
         <v>2</v>
       </c>
       <c r="H39" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I39">
         <v>3</v>
       </c>
-      <c r="J39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>550184139</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -1680,30 +1562,27 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G40" t="s">
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I40">
         <v>4</v>
       </c>
-      <c r="J40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>1725538225</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -1712,30 +1591,27 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
         <v>2</v>
       </c>
       <c r="H41" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I41">
         <v>5</v>
       </c>
-      <c r="J41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1722204441</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -1744,30 +1620,27 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G42" t="s">
         <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>1751081587</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -1776,30 +1649,27 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G43" t="s">
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I43">
         <v>2</v>
       </c>
-      <c r="J43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2100711585</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -1808,22 +1678,19 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
         <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I44">
         <v>3</v>
-      </c>
-      <c r="J44">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/database/archivo_carga_cupos_con_datos.xlsx
+++ b/database/archivo_carga_cupos_con_datos.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C801EC2-949D-45BF-9440-0DEAED2D39C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cupos" sheetId="1" r:id="rId1"/>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,29 +381,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="A7" sqref="A7:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -431,7 +432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1751817626</v>
       </c>
@@ -460,7 +461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1722001458</v>
       </c>
@@ -489,7 +490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1752786929</v>
       </c>
@@ -518,7 +519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1726631896</v>
       </c>
@@ -547,7 +548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1752561033</v>
       </c>
@@ -575,158 +576,6 @@
       <c r="I6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
